--- a/natmiOut/OldD7/LR-pairs_lrc2p/Vtn-Tnfrsf11b.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Vtn-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,185 +522,743 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.9710846555405</v>
+        <v>12.75206033333333</v>
       </c>
       <c r="H2">
-        <v>10.9710846555405</v>
+        <v>38.256181</v>
       </c>
       <c r="I2">
-        <v>0.2669722448236684</v>
+        <v>0.1573122343381959</v>
       </c>
       <c r="J2">
-        <v>0.2669722448236684</v>
+        <v>0.157312234338196</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.18898490189816</v>
+        <v>0.1085253333333333</v>
       </c>
       <c r="N2">
-        <v>2.18898490189816</v>
+        <v>0.325576</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.04110788357328589</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.04110788357328589</v>
       </c>
       <c r="Q2">
-        <v>24.01553866842473</v>
+        <v>1.383921598361778</v>
       </c>
       <c r="R2">
-        <v>24.01553866842473</v>
+        <v>12.455294385256</v>
       </c>
       <c r="S2">
-        <v>0.2669722448236684</v>
+        <v>0.006466773013828025</v>
       </c>
       <c r="T2">
-        <v>0.2669722448236684</v>
+        <v>0.006466773013828027</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.2889512642137</v>
+        <v>12.75206033333333</v>
       </c>
       <c r="H3">
-        <v>20.2889512642137</v>
+        <v>38.256181</v>
       </c>
       <c r="I3">
-        <v>0.4937147997841498</v>
+        <v>0.1573122343381959</v>
       </c>
       <c r="J3">
-        <v>0.4937147997841498</v>
+        <v>0.157312234338196</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.18898490189816</v>
+        <v>2.214957333333333</v>
       </c>
       <c r="N3">
-        <v>2.18898490189816</v>
+        <v>6.644871999999999</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.8389949644181</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.8389949644181001</v>
       </c>
       <c r="Q3">
-        <v>44.41220799271138</v>
+        <v>28.24526955042577</v>
       </c>
       <c r="R3">
-        <v>44.41220799271138</v>
+        <v>254.207425953832</v>
       </c>
       <c r="S3">
-        <v>0.4937147997841498</v>
+        <v>0.1319841724511065</v>
       </c>
       <c r="T3">
-        <v>0.4937147997841498</v>
+        <v>0.1319841724511066</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>12.75206033333333</v>
+      </c>
+      <c r="H4">
+        <v>38.256181</v>
+      </c>
+      <c r="I4">
+        <v>0.1573122343381959</v>
+      </c>
+      <c r="J4">
+        <v>0.157312234338196</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.31653</v>
+      </c>
+      <c r="N4">
+        <v>0.9495899999999999</v>
+      </c>
+      <c r="O4">
+        <v>0.1198971520086141</v>
+      </c>
+      <c r="P4">
+        <v>0.1198971520086141</v>
+      </c>
+      <c r="Q4">
+        <v>4.036409657309999</v>
+      </c>
+      <c r="R4">
+        <v>36.32768691579</v>
+      </c>
+      <c r="S4">
+        <v>0.0188612888732614</v>
+      </c>
+      <c r="T4">
+        <v>0.0188612888732614</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>20.35396833333334</v>
+      </c>
+      <c r="H5">
+        <v>61.06190500000001</v>
+      </c>
+      <c r="I5">
+        <v>0.2510910513649196</v>
+      </c>
+      <c r="J5">
+        <v>0.2510910513649196</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.1085253333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.325576</v>
+      </c>
+      <c r="O5">
+        <v>0.04110788357328589</v>
+      </c>
+      <c r="P5">
+        <v>0.04110788357328589</v>
+      </c>
+      <c r="Q5">
+        <v>2.208921198031111</v>
+      </c>
+      <c r="R5">
+        <v>19.88029078228</v>
+      </c>
+      <c r="S5">
+        <v>0.01032182170580306</v>
+      </c>
+      <c r="T5">
+        <v>0.01032182170580306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>20.35396833333334</v>
+      </c>
+      <c r="H6">
+        <v>61.06190500000001</v>
+      </c>
+      <c r="I6">
+        <v>0.2510910513649196</v>
+      </c>
+      <c r="J6">
+        <v>0.2510910513649196</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.214957333333333</v>
+      </c>
+      <c r="N6">
+        <v>6.644871999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.8389949644181</v>
+      </c>
+      <c r="P6">
+        <v>0.8389949644181001</v>
+      </c>
+      <c r="Q6">
+        <v>45.08317142235111</v>
+      </c>
+      <c r="R6">
+        <v>405.7485428011601</v>
+      </c>
+      <c r="S6">
+        <v>0.210664127705614</v>
+      </c>
+      <c r="T6">
+        <v>0.210664127705614</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>20.35396833333334</v>
+      </c>
+      <c r="H7">
+        <v>61.06190500000001</v>
+      </c>
+      <c r="I7">
+        <v>0.2510910513649196</v>
+      </c>
+      <c r="J7">
+        <v>0.2510910513649196</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.31653</v>
+      </c>
+      <c r="N7">
+        <v>0.9495899999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.1198971520086141</v>
+      </c>
+      <c r="P7">
+        <v>0.1198971520086141</v>
+      </c>
+      <c r="Q7">
+        <v>6.442641596550001</v>
+      </c>
+      <c r="R7">
+        <v>57.98377436895001</v>
+      </c>
+      <c r="S7">
+        <v>0.0301051019535025</v>
+      </c>
+      <c r="T7">
+        <v>0.0301051019535025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.004706</v>
+      </c>
+      <c r="H8">
+        <v>0.014118</v>
+      </c>
+      <c r="I8">
+        <v>5.805425597465284E-05</v>
+      </c>
+      <c r="J8">
+        <v>5.805425597465285E-05</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.1085253333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.325576</v>
+      </c>
+      <c r="O8">
+        <v>0.04110788357328589</v>
+      </c>
+      <c r="P8">
+        <v>0.04110788357328589</v>
+      </c>
+      <c r="Q8">
+        <v>0.0005107202186666666</v>
+      </c>
+      <c r="R8">
+        <v>0.004596481968</v>
+      </c>
+      <c r="S8">
+        <v>2.386487595539766E-06</v>
+      </c>
+      <c r="T8">
+        <v>2.386487595539766E-06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.004706</v>
+      </c>
+      <c r="H9">
+        <v>0.014118</v>
+      </c>
+      <c r="I9">
+        <v>5.805425597465284E-05</v>
+      </c>
+      <c r="J9">
+        <v>5.805425597465285E-05</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.214957333333333</v>
+      </c>
+      <c r="N9">
+        <v>6.644871999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.8389949644181</v>
+      </c>
+      <c r="P9">
+        <v>0.8389949644181001</v>
+      </c>
+      <c r="Q9">
+        <v>0.01042358921066667</v>
+      </c>
+      <c r="R9">
+        <v>0.093812302896</v>
+      </c>
+      <c r="S9">
+        <v>4.870722842577313E-05</v>
+      </c>
+      <c r="T9">
+        <v>4.870722842577314E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.004706</v>
+      </c>
+      <c r="H10">
+        <v>0.014118</v>
+      </c>
+      <c r="I10">
+        <v>5.805425597465284E-05</v>
+      </c>
+      <c r="J10">
+        <v>5.805425597465285E-05</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.31653</v>
+      </c>
+      <c r="N10">
+        <v>0.9495899999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.1198971520086141</v>
+      </c>
+      <c r="P10">
+        <v>0.1198971520086141</v>
+      </c>
+      <c r="Q10">
+        <v>0.00148959018</v>
+      </c>
+      <c r="R10">
+        <v>0.01340631162</v>
+      </c>
+      <c r="S10">
+        <v>6.960539953339945E-06</v>
+      </c>
+      <c r="T10">
+        <v>6.960539953339946E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>47.951367</v>
+      </c>
+      <c r="H11">
+        <v>143.854101</v>
+      </c>
+      <c r="I11">
+        <v>0.5915386600409097</v>
+      </c>
+      <c r="J11">
+        <v>0.5915386600409098</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.1085253333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.325576</v>
+      </c>
+      <c r="O11">
+        <v>0.04110788357328589</v>
+      </c>
+      <c r="P11">
+        <v>0.04110788357328589</v>
+      </c>
+      <c r="Q11">
+        <v>5.203938087464</v>
+      </c>
+      <c r="R11">
+        <v>46.835442787176</v>
+      </c>
+      <c r="S11">
+        <v>0.02431690236605926</v>
+      </c>
+      <c r="T11">
+        <v>0.02431690236605926</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>9.834440634491189</v>
-      </c>
-      <c r="H4">
-        <v>9.834440634491189</v>
-      </c>
-      <c r="I4">
-        <v>0.2393129553921818</v>
-      </c>
-      <c r="J4">
-        <v>0.2393129553921818</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>2.18898490189816</v>
-      </c>
-      <c r="N4">
-        <v>2.18898490189816</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>21.52744206751498</v>
-      </c>
-      <c r="R4">
-        <v>21.52744206751498</v>
-      </c>
-      <c r="S4">
-        <v>0.2393129553921818</v>
-      </c>
-      <c r="T4">
-        <v>0.2393129553921818</v>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>47.951367</v>
+      </c>
+      <c r="H12">
+        <v>143.854101</v>
+      </c>
+      <c r="I12">
+        <v>0.5915386600409097</v>
+      </c>
+      <c r="J12">
+        <v>0.5915386600409098</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.214957333333333</v>
+      </c>
+      <c r="N12">
+        <v>6.644871999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.8389949644181</v>
+      </c>
+      <c r="P12">
+        <v>0.8389949644181001</v>
+      </c>
+      <c r="Q12">
+        <v>106.210231980008</v>
+      </c>
+      <c r="R12">
+        <v>955.892087820072</v>
+      </c>
+      <c r="S12">
+        <v>0.4962979570329536</v>
+      </c>
+      <c r="T12">
+        <v>0.4962979570329537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>47.951367</v>
+      </c>
+      <c r="H13">
+        <v>143.854101</v>
+      </c>
+      <c r="I13">
+        <v>0.5915386600409097</v>
+      </c>
+      <c r="J13">
+        <v>0.5915386600409098</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.31653</v>
+      </c>
+      <c r="N13">
+        <v>0.9495899999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.1198971520086141</v>
+      </c>
+      <c r="P13">
+        <v>0.1198971520086141</v>
+      </c>
+      <c r="Q13">
+        <v>15.17804619651</v>
+      </c>
+      <c r="R13">
+        <v>136.60241576859</v>
+      </c>
+      <c r="S13">
+        <v>0.07092380064189685</v>
+      </c>
+      <c r="T13">
+        <v>0.07092380064189686</v>
       </c>
     </row>
   </sheetData>
